--- a/team_1/data/인구/서울시_구별_범죄발생_인구수.xlsx
+++ b/team_1/data/인구/서울시_구별_범죄발생_인구수.xlsx
@@ -486,26 +486,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>강남구</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4057</v>
+        <v>7720</v>
       </c>
       <c r="E2" t="n">
-        <v>3690</v>
+        <v>7513</v>
       </c>
       <c r="F2" t="n">
-        <v>3846</v>
+        <v>7304</v>
       </c>
       <c r="G2" t="n">
-        <v>164257</v>
+        <v>561052</v>
       </c>
       <c r="H2" t="n">
-        <v>163026</v>
+        <v>547453</v>
       </c>
       <c r="I2" t="n">
-        <v>161869</v>
+        <v>550209</v>
       </c>
     </row>
     <row r="3">
@@ -519,26 +519,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>강동구</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4184</v>
+        <v>4261</v>
       </c>
       <c r="E3" t="n">
-        <v>4030</v>
+        <v>3919</v>
       </c>
       <c r="F3" t="n">
-        <v>4327</v>
+        <v>4014</v>
       </c>
       <c r="G3" t="n">
-        <v>134593</v>
+        <v>440359</v>
       </c>
       <c r="H3" t="n">
-        <v>135633</v>
+        <v>431920</v>
       </c>
       <c r="I3" t="n">
-        <v>136488</v>
+        <v>440390</v>
       </c>
     </row>
     <row r="4">
@@ -552,26 +552,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>용산구</t>
+          <t>강북구</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4060</v>
+        <v>3393</v>
       </c>
       <c r="E4" t="n">
-        <v>3411</v>
+        <v>3437</v>
       </c>
       <c r="F4" t="n">
-        <v>3313</v>
+        <v>3838</v>
       </c>
       <c r="G4" t="n">
-        <v>244444</v>
+        <v>328002</v>
       </c>
       <c r="H4" t="n">
-        <v>245090</v>
+        <v>322915</v>
       </c>
       <c r="I4" t="n">
-        <v>245185</v>
+        <v>317695</v>
       </c>
     </row>
     <row r="5">
@@ -585,26 +585,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>성동구</t>
+          <t>강서구</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2767</v>
+        <v>5135</v>
       </c>
       <c r="E5" t="n">
-        <v>2457</v>
+        <v>4629</v>
       </c>
       <c r="F5" t="n">
-        <v>2512</v>
+        <v>4924</v>
       </c>
       <c r="G5" t="n">
-        <v>312711</v>
+        <v>608255</v>
       </c>
       <c r="H5" t="n">
-        <v>316463</v>
+        <v>603611</v>
       </c>
       <c r="I5" t="n">
-        <v>308979</v>
+        <v>598273</v>
       </c>
     </row>
     <row r="6">
@@ -618,26 +618,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>광진구</t>
+          <t>관악구</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4646</v>
+        <v>5525</v>
       </c>
       <c r="E6" t="n">
-        <v>3915</v>
+        <v>5026</v>
       </c>
       <c r="F6" t="n">
-        <v>4011</v>
+        <v>5328</v>
       </c>
       <c r="G6" t="n">
-        <v>372298</v>
+        <v>520929</v>
       </c>
       <c r="H6" t="n">
-        <v>371063</v>
+        <v>520040</v>
       </c>
       <c r="I6" t="n">
-        <v>366972</v>
+        <v>517334</v>
       </c>
     </row>
     <row r="7">
@@ -651,26 +651,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>동대문구</t>
+          <t>광진구</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3975</v>
+        <v>4646</v>
       </c>
       <c r="E7" t="n">
-        <v>3680</v>
+        <v>3915</v>
       </c>
       <c r="F7" t="n">
-        <v>3692</v>
+        <v>4011</v>
       </c>
       <c r="G7" t="n">
-        <v>366011</v>
+        <v>372298</v>
       </c>
       <c r="H7" t="n">
-        <v>364338</v>
+        <v>371063</v>
       </c>
       <c r="I7" t="n">
-        <v>363023</v>
+        <v>366972</v>
       </c>
     </row>
     <row r="8">
@@ -684,26 +684,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>중랑구</t>
+          <t>구로구</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4571</v>
+        <v>4895</v>
       </c>
       <c r="E8" t="n">
-        <v>4288</v>
+        <v>4810</v>
       </c>
       <c r="F8" t="n">
-        <v>4268</v>
+        <v>4707</v>
       </c>
       <c r="G8" t="n">
-        <v>412780</v>
+        <v>441559</v>
       </c>
       <c r="H8" t="n">
-        <v>408147</v>
+        <v>438486</v>
       </c>
       <c r="I8" t="n">
-        <v>402024</v>
+        <v>439371</v>
       </c>
     </row>
     <row r="9">
@@ -717,26 +717,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>성북구</t>
+          <t>금천구</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3434</v>
+        <v>3265</v>
       </c>
       <c r="E9" t="n">
-        <v>3042</v>
+        <v>3293</v>
       </c>
       <c r="F9" t="n">
-        <v>2877</v>
+        <v>3105</v>
       </c>
       <c r="G9" t="n">
-        <v>455407</v>
+        <v>253491</v>
       </c>
       <c r="H9" t="n">
-        <v>447687</v>
+        <v>254021</v>
       </c>
       <c r="I9" t="n">
-        <v>454744</v>
+        <v>251820</v>
       </c>
     </row>
     <row r="10">
@@ -750,26 +750,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>강북구</t>
+          <t>노원구</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3393</v>
+        <v>4209</v>
       </c>
       <c r="E10" t="n">
-        <v>3437</v>
+        <v>4007</v>
       </c>
       <c r="F10" t="n">
-        <v>3838</v>
+        <v>4153</v>
       </c>
       <c r="G10" t="n">
-        <v>328002</v>
+        <v>558075</v>
       </c>
       <c r="H10" t="n">
-        <v>322915</v>
+        <v>548160</v>
       </c>
       <c r="I10" t="n">
-        <v>317695</v>
+        <v>537303</v>
       </c>
     </row>
     <row r="11">
@@ -816,26 +816,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>노원구</t>
+          <t>동대문구</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4209</v>
+        <v>3975</v>
       </c>
       <c r="E12" t="n">
-        <v>4007</v>
+        <v>3680</v>
       </c>
       <c r="F12" t="n">
-        <v>4153</v>
+        <v>3692</v>
       </c>
       <c r="G12" t="n">
-        <v>558075</v>
+        <v>366011</v>
       </c>
       <c r="H12" t="n">
-        <v>548160</v>
+        <v>364338</v>
       </c>
       <c r="I12" t="n">
-        <v>537303</v>
+        <v>363023</v>
       </c>
     </row>
     <row r="13">
@@ -849,26 +849,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>은평구</t>
+          <t>동작구</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3883</v>
+        <v>3330</v>
       </c>
       <c r="E13" t="n">
-        <v>3590</v>
+        <v>3100</v>
       </c>
       <c r="F13" t="n">
-        <v>3880</v>
+        <v>3400</v>
       </c>
       <c r="G13" t="n">
-        <v>491202</v>
+        <v>408493</v>
       </c>
       <c r="H13" t="n">
-        <v>487666</v>
+        <v>409385</v>
       </c>
       <c r="I13" t="n">
-        <v>484546</v>
+        <v>408912</v>
       </c>
     </row>
     <row r="14">
@@ -882,26 +882,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>서대문구</t>
+          <t>마포구</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3113</v>
+        <v>5278</v>
       </c>
       <c r="E14" t="n">
-        <v>2802</v>
+        <v>5172</v>
       </c>
       <c r="F14" t="n">
-        <v>2943</v>
+        <v>4842</v>
       </c>
       <c r="G14" t="n">
-        <v>325028</v>
+        <v>385783</v>
       </c>
       <c r="H14" t="n">
-        <v>323080</v>
+        <v>386359</v>
       </c>
       <c r="I14" t="n">
-        <v>323171</v>
+        <v>385925</v>
       </c>
     </row>
     <row r="15">
@@ -915,26 +915,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>마포구</t>
+          <t>서대문구</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5278</v>
+        <v>3113</v>
       </c>
       <c r="E15" t="n">
-        <v>5172</v>
+        <v>2802</v>
       </c>
       <c r="F15" t="n">
-        <v>4842</v>
+        <v>2943</v>
       </c>
       <c r="G15" t="n">
-        <v>385783</v>
+        <v>325028</v>
       </c>
       <c r="H15" t="n">
-        <v>386359</v>
+        <v>323080</v>
       </c>
       <c r="I15" t="n">
-        <v>385925</v>
+        <v>323171</v>
       </c>
     </row>
     <row r="16">
@@ -948,26 +948,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>양천구</t>
+          <t>서초구</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3882</v>
+        <v>4708</v>
       </c>
       <c r="E16" t="n">
-        <v>3515</v>
+        <v>4726</v>
       </c>
       <c r="F16" t="n">
-        <v>3214</v>
+        <v>5542</v>
       </c>
       <c r="G16" t="n">
-        <v>475018</v>
+        <v>445401</v>
       </c>
       <c r="H16" t="n">
-        <v>468145</v>
+        <v>438163</v>
       </c>
       <c r="I16" t="n">
-        <v>462285</v>
+        <v>435107</v>
       </c>
     </row>
     <row r="17">
@@ -981,26 +981,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>강서구</t>
+          <t>성동구</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5135</v>
+        <v>2767</v>
       </c>
       <c r="E17" t="n">
-        <v>4629</v>
+        <v>2457</v>
       </c>
       <c r="F17" t="n">
-        <v>4924</v>
+        <v>2512</v>
       </c>
       <c r="G17" t="n">
-        <v>608255</v>
+        <v>312711</v>
       </c>
       <c r="H17" t="n">
-        <v>603611</v>
+        <v>316463</v>
       </c>
       <c r="I17" t="n">
-        <v>598273</v>
+        <v>308979</v>
       </c>
     </row>
     <row r="18">
@@ -1014,26 +1014,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>구로구</t>
+          <t>성북구</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4895</v>
+        <v>3434</v>
       </c>
       <c r="E18" t="n">
-        <v>4810</v>
+        <v>3042</v>
       </c>
       <c r="F18" t="n">
-        <v>4707</v>
+        <v>2877</v>
       </c>
       <c r="G18" t="n">
-        <v>441559</v>
+        <v>455407</v>
       </c>
       <c r="H18" t="n">
-        <v>438486</v>
+        <v>447687</v>
       </c>
       <c r="I18" t="n">
-        <v>439371</v>
+        <v>454744</v>
       </c>
     </row>
     <row r="19">
@@ -1047,26 +1047,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>금천구</t>
+          <t>송파구</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3265</v>
+        <v>5576</v>
       </c>
       <c r="E19" t="n">
-        <v>3293</v>
+        <v>5807</v>
       </c>
       <c r="F19" t="n">
-        <v>3105</v>
+        <v>5698</v>
       </c>
       <c r="G19" t="n">
-        <v>253491</v>
+        <v>671173</v>
       </c>
       <c r="H19" t="n">
-        <v>254021</v>
+        <v>673507</v>
       </c>
       <c r="I19" t="n">
-        <v>251820</v>
+        <v>682741</v>
       </c>
     </row>
     <row r="20">
@@ -1080,26 +1080,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>영등포구</t>
+          <t>양천구</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5969</v>
+        <v>3882</v>
       </c>
       <c r="E20" t="n">
-        <v>5840</v>
+        <v>3515</v>
       </c>
       <c r="F20" t="n">
-        <v>5820</v>
+        <v>3214</v>
       </c>
       <c r="G20" t="n">
-        <v>402024</v>
+        <v>475018</v>
       </c>
       <c r="H20" t="n">
-        <v>403600</v>
+        <v>468145</v>
       </c>
       <c r="I20" t="n">
-        <v>400986</v>
+        <v>462285</v>
       </c>
     </row>
     <row r="21">
@@ -1113,26 +1113,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>동작구</t>
+          <t>영등포구</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3330</v>
+        <v>5969</v>
       </c>
       <c r="E21" t="n">
-        <v>3100</v>
+        <v>5840</v>
       </c>
       <c r="F21" t="n">
-        <v>3400</v>
+        <v>5820</v>
       </c>
       <c r="G21" t="n">
-        <v>408493</v>
+        <v>402024</v>
       </c>
       <c r="H21" t="n">
-        <v>409385</v>
+        <v>403600</v>
       </c>
       <c r="I21" t="n">
-        <v>408912</v>
+        <v>400986</v>
       </c>
     </row>
     <row r="22">
@@ -1146,26 +1146,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>관악구</t>
+          <t>용산구</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5525</v>
+        <v>4060</v>
       </c>
       <c r="E22" t="n">
-        <v>5026</v>
+        <v>3411</v>
       </c>
       <c r="F22" t="n">
-        <v>5328</v>
+        <v>3313</v>
       </c>
       <c r="G22" t="n">
-        <v>520929</v>
+        <v>244444</v>
       </c>
       <c r="H22" t="n">
-        <v>520040</v>
+        <v>245090</v>
       </c>
       <c r="I22" t="n">
-        <v>517334</v>
+        <v>245185</v>
       </c>
     </row>
     <row r="23">
@@ -1179,26 +1179,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>서초구</t>
+          <t>은평구</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4708</v>
+        <v>3883</v>
       </c>
       <c r="E23" t="n">
-        <v>4726</v>
+        <v>3590</v>
       </c>
       <c r="F23" t="n">
-        <v>5542</v>
+        <v>3880</v>
       </c>
       <c r="G23" t="n">
-        <v>445401</v>
+        <v>491202</v>
       </c>
       <c r="H23" t="n">
-        <v>438163</v>
+        <v>487666</v>
       </c>
       <c r="I23" t="n">
-        <v>435107</v>
+        <v>484546</v>
       </c>
     </row>
     <row r="24">
@@ -1212,26 +1212,26 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>강남구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7720</v>
+        <v>4057</v>
       </c>
       <c r="E24" t="n">
-        <v>7513</v>
+        <v>3690</v>
       </c>
       <c r="F24" t="n">
-        <v>7304</v>
+        <v>3846</v>
       </c>
       <c r="G24" t="n">
-        <v>561052</v>
+        <v>164257</v>
       </c>
       <c r="H24" t="n">
-        <v>547453</v>
+        <v>163026</v>
       </c>
       <c r="I24" t="n">
-        <v>550209</v>
+        <v>161869</v>
       </c>
     </row>
     <row r="25">
@@ -1245,26 +1245,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>송파구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5576</v>
+        <v>4184</v>
       </c>
       <c r="E25" t="n">
-        <v>5807</v>
+        <v>4030</v>
       </c>
       <c r="F25" t="n">
-        <v>5698</v>
+        <v>4327</v>
       </c>
       <c r="G25" t="n">
-        <v>671173</v>
+        <v>134593</v>
       </c>
       <c r="H25" t="n">
-        <v>673507</v>
+        <v>135633</v>
       </c>
       <c r="I25" t="n">
-        <v>682741</v>
+        <v>136488</v>
       </c>
     </row>
     <row r="26">
@@ -1278,26 +1278,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>강동구</t>
+          <t>중랑구</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4261</v>
+        <v>4571</v>
       </c>
       <c r="E26" t="n">
-        <v>3919</v>
+        <v>4288</v>
       </c>
       <c r="F26" t="n">
-        <v>4014</v>
+        <v>4268</v>
       </c>
       <c r="G26" t="n">
-        <v>440359</v>
+        <v>412780</v>
       </c>
       <c r="H26" t="n">
-        <v>431920</v>
+        <v>408147</v>
       </c>
       <c r="I26" t="n">
-        <v>440390</v>
+        <v>402024</v>
       </c>
     </row>
   </sheetData>
